--- a/qa-junior-pleno/execution/execution.xlsx
+++ b/qa-junior-pleno/execution/execution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipei\OneDrive - AMDOCS\Backup Folders\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdocs-my.sharepoint.com/personal/felipei_amdocs_com/Documents/Backup Folders/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{BF610056-799C-4EE2-BF1A-3C7CBE4409A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{15481CEB-A291-4520-8A5D-0058752F7410}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="14_{E8BE0850-403A-49C9-98A4-53B4580CF61A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{DED0BE7A-4E10-4633-A7A3-35264DBF3488}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FA4CA167-C5A2-406E-9D03-8763A898702B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA4CA167-C5A2-406E-9D03-8763A898702B}"/>
   </bookViews>
   <sheets>
     <sheet name="execuções" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Scenarios</t>
   </si>
@@ -111,15 +111,6 @@
     <t>Assinar newsletter sem sucesso</t>
   </si>
   <si>
-    <t>1) Ao clicar na categoria dos artigos classificados como 'Outros', artigos de outras categorias são exibidos ??</t>
-  </si>
-  <si>
-    <t>2) Ao acessar o link para o autor do artigo, o usuário é redirecionado para a página inicial ao invés da página do autor</t>
-  </si>
-  <si>
-    <t>3) Seção de comentário está disponível na página seguinte independente de você clicar no link de comentários ou da notícia</t>
-  </si>
-  <si>
     <t>Defect#1</t>
   </si>
   <si>
@@ -136,15 +127,6 @@
   </si>
   <si>
     <t>Defect #3</t>
-  </si>
-  <si>
-    <t>Criticidade: Alta</t>
-  </si>
-  <si>
-    <t>Criticidade: Baixa</t>
-  </si>
-  <si>
-    <t>Criticidade: Média</t>
   </si>
   <si>
     <t>Data e hora: 10/03 - 10h</t>
@@ -176,6 +158,27 @@
 2) O usuário deve ser redirecionado para seção de comentários do artigo
 3) Ao invés disso, o usuário é direcionado para a página do artigo diretamente como se tivesse clicado no título ao no botão "Read More"
 </t>
+  </si>
+  <si>
+    <t>Defect</t>
+  </si>
+  <si>
+    <t>defect #3</t>
+  </si>
+  <si>
+    <t>defect #1</t>
+  </si>
+  <si>
+    <t>defect #2</t>
+  </si>
+  <si>
+    <t>Criticidade: Baixa (3 cenário impactados, 1 funcionalidade inteira)</t>
+  </si>
+  <si>
+    <t>Criticidade: Baixa (5 cenários impactados)</t>
+  </si>
+  <si>
+    <t>Criticidade: Média (12 cenários impactados, 2 funcionalidades inteiras)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -587,13 +593,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00B90918-1590-4DB2-A0F3-1F8CC55E957E}" name="Table1" displayName="Table1" ref="A1:D24" totalsRowShown="0">
-  <autoFilter ref="A1:D24" xr:uid="{270C4B4D-0AE8-469C-B5EB-0EADEC0EED0C}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00B90918-1590-4DB2-A0F3-1F8CC55E957E}" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+  <autoFilter ref="A1:E24" xr:uid="{270C4B4D-0AE8-469C-B5EB-0EADEC0EED0C}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B78E4AE0-FBDD-4705-86AD-05BB0B8F91C0}" name="Scenarios"/>
-    <tableColumn id="2" xr3:uid="{AA084E28-A648-4B5A-BA90-3561CF8BC268}" name="Total Testcases" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F6B97867-3DF7-4DB6-9AF0-5BEFBDAAD10F}" name="Total Passed" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{03A229AC-3A13-4DE0-AD09-67FAB1856B1D}" name="Total Failed" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{AA084E28-A648-4B5A-BA90-3561CF8BC268}" name="Total Testcases" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F6B97867-3DF7-4DB6-9AF0-5BEFBDAAD10F}" name="Total Passed" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{03A229AC-3A13-4DE0-AD09-67FAB1856B1D}" name="Total Failed" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3874E259-298D-46F9-B7F7-D821C37AE755}" name="Defect" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -926,21 +933,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65F5753-6A01-40F9-A2C6-210505FB99CA}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="149.42578125" customWidth="1"/>
+    <col min="1" max="1" width="137.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -953,8 +961,11 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -967,8 +978,9 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -981,8 +993,9 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -995,8 +1008,9 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1023,9 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1023,8 +1038,11 @@
       <c r="D6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1037,8 +1055,11 @@
       <c r="D7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1051,8 +1072,9 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1065,8 +1087,11 @@
       <c r="D9" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1079,8 +1104,11 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1093,8 +1121,11 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1138,9 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1121,8 +1153,11 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1135,22 +1170,26 @@
       <c r="D14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1163,8 +1202,9 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1177,8 +1217,9 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1191,8 +1232,9 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1205,8 +1247,9 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1219,8 +1262,9 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1233,8 +1277,9 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1247,41 +1292,29 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
         <f>SUBTOTAL(109,B2:B22)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="6">
         <f>SUBTOTAL(109,C2:C22)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="6">
         <f>SUBTOTAL(109,D2:D22)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,7 +1330,7 @@
   <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,27 +1340,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,7 +1381,7 @@
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,27 +1391,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1395,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823B361-65BB-4D1D-86F8-B37EACBBC33D}">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,27 +1439,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1449,6 +1482,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C3DF3FF38293344BF16D54B31CD004B" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a49d45b560b94d90796d6259dd6ed66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="743bf456-858c-44a1-8f61-4442775af8f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5be9c9c7663a3897a02a87500ac67963" ns3:_="">
     <xsd:import namespace="743bf456-858c-44a1-8f61-4442775af8f0"/>
@@ -1612,12 +1651,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B66DB23-36A6-438A-BA03-2FE83809B2CC}">
   <ds:schemaRefs>
@@ -1627,6 +1660,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E6171DD-BFA7-47B9-9F40-1B67C798B6D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="743bf456-858c-44a1-8f61-4442775af8f0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C350FA3C-0E8C-4B3B-8D40-FB4532287A95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1642,20 +1691,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E6171DD-BFA7-47B9-9F40-1B67C798B6D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="743bf456-858c-44a1-8f61-4442775af8f0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>